--- a/validated_invoices.xlsx
+++ b/validated_invoices.xlsx
@@ -52,6 +52,9 @@
     <x:t>Extracted</x:t>
   </x:si>
   <x:si>
+    <x:t>Valid</x:t>
+  </x:si>
+  <x:si>
     <x:t/>
   </x:si>
   <x:si>
@@ -124,6 +127,12 @@
     <x:t>7/16/2025</x:t>
   </x:si>
   <x:si>
+    <x:t>Invalid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Format PO Number tidak sesuai.</x:t>
+  </x:si>
+  <x:si>
     <x:t>INV-2025-008</x:t>
   </x:si>
   <x:si>
@@ -158,15 +167,6 @@
   </x:si>
   <x:si>
     <x:t>19/07/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invalid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Format PO Number tidak sesuai.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -563,217 +563,217 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
